--- a/seeds/seeds.xlsx
+++ b/seeds/seeds.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\lucky-shine\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/default/Dropbox/*Rachel DinDinn Work/9.) DinDinn | Recruitments/_Full Stack Assignment/Mini Assignment_Nodejs &amp; PHP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C62DACF-761E-9F41-9F73-C7AE2A7E2275}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9324"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="treasures" sheetId="1" r:id="rId1"/>
@@ -152,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -532,25 +533,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="4.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -565,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>100</v>
@@ -580,7 +581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>101</v>
@@ -595,7 +596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>102</v>
@@ -610,7 +611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>103</v>
@@ -625,7 +626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>104</v>
@@ -640,7 +641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>105</v>
@@ -655,7 +656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>106</v>
@@ -670,7 +671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>107</v>
@@ -685,7 +686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>108</v>
@@ -700,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>109</v>
@@ -715,7 +716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>110</v>
@@ -730,7 +731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>111</v>
@@ -745,7 +746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>112</v>
@@ -760,7 +761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>113</v>
@@ -775,7 +776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>114</v>
@@ -790,7 +791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>115</v>
@@ -805,7 +806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>116</v>
@@ -820,7 +821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>117</v>
@@ -841,27 +842,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -878,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2">
         <v>3000</v>
       </c>
@@ -895,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2">
         <v>3001</v>
       </c>
@@ -912,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>3002</v>
       </c>
@@ -929,7 +930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>3003</v>
       </c>
@@ -946,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>3004</v>
       </c>
@@ -963,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>3005</v>
       </c>
@@ -986,28 +987,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:C20"/>
+  <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2">
         <v>100</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2">
         <v>101</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>102</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>103</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>104</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>105</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>106</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>107</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>108</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>109</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>110</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>111</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>112</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>113</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>114</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>115</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>116</v>
       </c>
@@ -1151,12 +1152,68 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>117</v>
       </c>
       <c r="C20" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="2">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="2">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>107</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="2">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
